--- a/Monopol/output_jail.xlsx
+++ b/Monopol/output_jail.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College\Modelowanie\Monopol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD8CDFF-D137-44C4-B20F-FB45C75AAD4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B506545-57F0-4F90-99BD-2A3296D8E1B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{4AE95502-F62C-4C8D-AEF0-84F10A645873}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{4AE95502-F62C-4C8D-AEF0-84F10A645873}"/>
   </bookViews>
   <sheets>
     <sheet name="output_1m" sheetId="4" r:id="rId1"/>
@@ -58,22 +58,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>Column1</t>
   </si>
   <si>
     <t>Column2</t>
   </si>
+  <si>
+    <t>Column3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="238"/>
@@ -100,13 +110,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -203,11 +227,128 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>output_1m!$B$1</c:f>
+              <c:f>output_1m!$C$2:$C$41</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>Column2</c:v>
+                  <c:v>0.022534</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02215</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.021714</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.024012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.023528</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.023477</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.02332</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.022759</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.023348</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.023047</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.04999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.023103</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.02522</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.025514</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.025759</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.02601</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.026116</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.026704</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.026796</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.026966</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.027415</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.027754</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.028044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.026265</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.026556</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.026751</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.026885</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.026564</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.026763</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.027135</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.026864</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.027095</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.02459</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.024606</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.024135</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.02416</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.023728</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.02337</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.023219</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.022898</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -238,129 +379,129 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>output_1m!$B$2:$B$41</c:f>
+              <c:f>output_1m!$C$2:$C$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>22534</c:v>
+                  <c:v>2.2533999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22150</c:v>
+                  <c:v>2.215E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21714</c:v>
+                  <c:v>2.1714000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24012</c:v>
+                  <c:v>2.4011999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23528</c:v>
+                  <c:v>2.3528E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23477</c:v>
+                  <c:v>2.3477000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23320</c:v>
+                  <c:v>2.332E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22759</c:v>
+                  <c:v>2.2759000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23348</c:v>
+                  <c:v>2.3348000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23047</c:v>
+                  <c:v>2.3047000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>49990</c:v>
+                  <c:v>4.999E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>23103</c:v>
+                  <c:v>2.3102999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>25220</c:v>
+                  <c:v>2.5219999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>25514</c:v>
+                  <c:v>2.5513999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25759</c:v>
+                  <c:v>2.5759000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>26010</c:v>
+                  <c:v>2.6009999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>26116</c:v>
+                  <c:v>2.6116E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>26704</c:v>
+                  <c:v>2.6703999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>26796</c:v>
+                  <c:v>2.6796E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>26966</c:v>
+                  <c:v>2.6966E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>27415</c:v>
+                  <c:v>2.7414999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>27754</c:v>
+                  <c:v>2.7754000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>28044</c:v>
+                  <c:v>2.8043999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>26265</c:v>
+                  <c:v>2.6265E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>26556</c:v>
+                  <c:v>2.6556E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26751</c:v>
+                  <c:v>2.6751E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26885</c:v>
+                  <c:v>2.6884999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>26564</c:v>
+                  <c:v>2.6564000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>26763</c:v>
+                  <c:v>2.6762999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>27135</c:v>
+                  <c:v>2.7134999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>26864</c:v>
+                  <c:v>2.6863999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>27095</c:v>
+                  <c:v>2.7095000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>24590</c:v>
+                  <c:v>2.4590000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>24606</c:v>
+                  <c:v>2.4605999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>24135</c:v>
+                  <c:v>2.4135E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>24160</c:v>
+                  <c:v>2.4160000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>23728</c:v>
+                  <c:v>2.3727999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>23370</c:v>
+                  <c:v>2.3369999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>23219</c:v>
+                  <c:v>2.3219E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>22898</c:v>
+                  <c:v>2.2898000000000002E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -663,129 +804,129 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>output!$B$2:$B$41</c:f>
+              <c:f>output!$C$2:$C$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2058,16 +2199,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2099,16 +2240,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2138,10 +2279,11 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_2" connectionId="4" xr16:uid="{690EBDDF-A35D-4FFB-A576-2B5D4447B77D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="3">
-    <queryTableFields count="2">
+  <queryTableRefresh nextId="4" unboundColumnsRight="1">
+    <queryTableFields count="3">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
       <queryTableField id="2" name="Column2" tableColumnId="2"/>
+      <queryTableField id="3" dataBound="0" tableColumnId="3"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -2149,32 +2291,41 @@
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="2" xr16:uid="{00564E57-473E-4E37-BEB6-5C725C478D30}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="3">
-    <queryTableFields count="2">
+  <queryTableRefresh nextId="4" unboundColumnsRight="1">
+    <queryTableFields count="3">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
       <queryTableField id="2" name="Column2" tableColumnId="2"/>
+      <queryTableField id="3" dataBound="0" tableColumnId="3"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FE8D72E7-A818-4F6D-ADDD-26B380547D4C}" name="output_1m__2" displayName="output_1m__2" ref="A1:B41" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B41" xr:uid="{FE8D72E7-A818-4F6D-ADDD-26B380547D4C}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FE8D72E7-A818-4F6D-ADDD-26B380547D4C}" name="output_1m__2" displayName="output_1m__2" ref="A1:C42" tableType="queryTable" totalsRowCount="1">
+  <autoFilter ref="A1:C41" xr:uid="{FE8D72E7-A818-4F6D-ADDD-26B380547D4C}"/>
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{96D43A8D-263D-47C8-8690-6E3636808925}" uniqueName="1" name="Column1" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{7B1EBD0D-90A0-4BBA-BB3D-697607C5E98C}" uniqueName="2" name="Column2" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{FBFD711A-EDC1-4C25-8845-EF90F702EC9F}" uniqueName="3" name="Column3" totalsRowFunction="custom" queryTableFieldId="3" dataDxfId="3" totalsRowDxfId="2">
+      <calculatedColumnFormula>output_1m__2[[#This Row],[Column2]]/1000000</calculatedColumnFormula>
+      <totalsRowFormula>SUM(C2:C41)-C32</totalsRowFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3D67F4C3-0BCA-487D-8473-1874EB32BC3E}" name="output__2" displayName="output__2" ref="A1:B41" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B41" xr:uid="{3D67F4C3-0BCA-487D-8473-1874EB32BC3E}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3D67F4C3-0BCA-487D-8473-1874EB32BC3E}" name="output__2" displayName="output__2" ref="A1:C42" tableType="queryTable" totalsRowCount="1">
+  <autoFilter ref="A1:C41" xr:uid="{3D67F4C3-0BCA-487D-8473-1874EB32BC3E}"/>
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{B2CECBB5-2861-4C10-9648-17F35E1E28DC}" uniqueName="1" name="Column1" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{19621996-C4E8-4386-A811-C1E17CFB8235}" uniqueName="2" name="Column2" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{C53F739D-990A-4F99-8660-1AEBABFC593B}" uniqueName="3" name="Column3" totalsRowFunction="custom" queryTableFieldId="3" dataDxfId="0" totalsRowDxfId="1">
+      <calculatedColumnFormula>output__2[[#This Row],[Column2]]/100</calculatedColumnFormula>
+      <totalsRowFormula>SUM(output__2[Column3])-C32</totalsRowFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2497,10 +2648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C20A50A-8356-41B3-BFAF-07C961AADA36}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2508,335 +2659,505 @@
     <col min="1" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
         <v>22534</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2">
+        <f>output_1m__2[[#This Row],[Column2]]/1000000</f>
+        <v>2.2533999999999998E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <v>22150</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3">
+        <f>output_1m__2[[#This Row],[Column2]]/1000000</f>
+        <v>2.215E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
         <v>21714</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C4">
+        <f>output_1m__2[[#This Row],[Column2]]/1000000</f>
+        <v>2.1714000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
         <v>24012</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C5">
+        <f>output_1m__2[[#This Row],[Column2]]/1000000</f>
+        <v>2.4011999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
         <v>23528</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <f>output_1m__2[[#This Row],[Column2]]/1000000</f>
+        <v>2.3528E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
         <v>23477</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C7">
+        <f>output_1m__2[[#This Row],[Column2]]/1000000</f>
+        <v>2.3477000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
         <v>23320</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C8">
+        <f>output_1m__2[[#This Row],[Column2]]/1000000</f>
+        <v>2.332E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
         <v>22759</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C9">
+        <f>output_1m__2[[#This Row],[Column2]]/1000000</f>
+        <v>2.2759000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
         <v>23348</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C10">
+        <f>output_1m__2[[#This Row],[Column2]]/1000000</f>
+        <v>2.3348000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
         <v>23047</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C11">
+        <f>output_1m__2[[#This Row],[Column2]]/1000000</f>
+        <v>2.3047000000000002E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
         <v>49990</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C12">
+        <f>output_1m__2[[#This Row],[Column2]]/1000000</f>
+        <v>4.999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
         <v>23103</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C13">
+        <f>output_1m__2[[#This Row],[Column2]]/1000000</f>
+        <v>2.3102999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
         <v>25220</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C14">
+        <f>output_1m__2[[#This Row],[Column2]]/1000000</f>
+        <v>2.5219999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
         <v>25514</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C15">
+        <f>output_1m__2[[#This Row],[Column2]]/1000000</f>
+        <v>2.5513999999999998E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
         <v>25759</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C16">
+        <f>output_1m__2[[#This Row],[Column2]]/1000000</f>
+        <v>2.5759000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
         <v>26010</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C17">
+        <f>output_1m__2[[#This Row],[Column2]]/1000000</f>
+        <v>2.6009999999999998E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
         <v>26116</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C18">
+        <f>output_1m__2[[#This Row],[Column2]]/1000000</f>
+        <v>2.6116E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
         <v>26704</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C19">
+        <f>output_1m__2[[#This Row],[Column2]]/1000000</f>
+        <v>2.6703999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
         <v>26796</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C20">
+        <f>output_1m__2[[#This Row],[Column2]]/1000000</f>
+        <v>2.6796E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
         <v>26966</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C21">
+        <f>output_1m__2[[#This Row],[Column2]]/1000000</f>
+        <v>2.6966E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
         <v>27415</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C22">
+        <f>output_1m__2[[#This Row],[Column2]]/1000000</f>
+        <v>2.7414999999999998E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23">
         <v>27754</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C23">
+        <f>output_1m__2[[#This Row],[Column2]]/1000000</f>
+        <v>2.7754000000000001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24">
         <v>28044</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C24">
+        <f>output_1m__2[[#This Row],[Column2]]/1000000</f>
+        <v>2.8043999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25">
         <v>26265</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C25">
+        <f>output_1m__2[[#This Row],[Column2]]/1000000</f>
+        <v>2.6265E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26">
         <v>26556</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C26">
+        <f>output_1m__2[[#This Row],[Column2]]/1000000</f>
+        <v>2.6556E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27">
         <v>26751</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C27">
+        <f>output_1m__2[[#This Row],[Column2]]/1000000</f>
+        <v>2.6751E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28">
         <v>26885</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C28">
+        <f>output_1m__2[[#This Row],[Column2]]/1000000</f>
+        <v>2.6884999999999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29">
         <v>26564</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C29">
+        <f>output_1m__2[[#This Row],[Column2]]/1000000</f>
+        <v>2.6564000000000001E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30">
         <v>26763</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C30">
+        <f>output_1m__2[[#This Row],[Column2]]/1000000</f>
+        <v>2.6762999999999999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31">
         <v>27135</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C31">
+        <f>output_1m__2[[#This Row],[Column2]]/1000000</f>
+        <v>2.7134999999999999E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32">
         <v>26864</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C32">
+        <f>output_1m__2[[#This Row],[Column2]]/1000000</f>
+        <v>2.6863999999999999E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33">
         <v>27095</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C33">
+        <f>output_1m__2[[#This Row],[Column2]]/1000000</f>
+        <v>2.7095000000000001E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34">
         <v>24590</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C34">
+        <f>output_1m__2[[#This Row],[Column2]]/1000000</f>
+        <v>2.4590000000000001E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35">
         <v>24606</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C35">
+        <f>output_1m__2[[#This Row],[Column2]]/1000000</f>
+        <v>2.4605999999999999E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36">
         <v>24135</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C36">
+        <f>output_1m__2[[#This Row],[Column2]]/1000000</f>
+        <v>2.4135E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37">
         <v>24160</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C37">
+        <f>output_1m__2[[#This Row],[Column2]]/1000000</f>
+        <v>2.4160000000000001E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38">
         <v>23728</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C38">
+        <f>output_1m__2[[#This Row],[Column2]]/1000000</f>
+        <v>2.3727999999999999E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39">
         <v>23370</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C39">
+        <f>output_1m__2[[#This Row],[Column2]]/1000000</f>
+        <v>2.3369999999999998E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40">
         <v>23219</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C40">
+        <f>output_1m__2[[#This Row],[Column2]]/1000000</f>
+        <v>2.3219E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41">
         <v>22898</v>
       </c>
+      <c r="C41">
+        <f>output_1m__2[[#This Row],[Column2]]/1000000</f>
+        <v>2.2898000000000002E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C42" s="1">
+        <f>SUM(C2:C41)-C32</f>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <tableParts count="1">
@@ -2847,10 +3168,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A71BBD3F-DB7D-4BAE-A178-C9808AB390B7}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2858,335 +3179,505 @@
     <col min="1" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2">
+        <f>output__2[[#This Row],[Column2]]/100</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3">
+        <f>output__2[[#This Row],[Column2]]/100</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C4">
+        <f>output__2[[#This Row],[Column2]]/100</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C5">
+        <f>output__2[[#This Row],[Column2]]/100</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <f>output__2[[#This Row],[Column2]]/100</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C7">
+        <f>output__2[[#This Row],[Column2]]/100</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C8">
+        <f>output__2[[#This Row],[Column2]]/100</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C9">
+        <f>output__2[[#This Row],[Column2]]/100</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C10">
+        <f>output__2[[#This Row],[Column2]]/100</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C11">
+        <f>output__2[[#This Row],[Column2]]/100</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C12">
+        <f>output__2[[#This Row],[Column2]]/100</f>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C13">
+        <f>output__2[[#This Row],[Column2]]/100</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C14">
+        <f>output__2[[#This Row],[Column2]]/100</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C15">
+        <f>output__2[[#This Row],[Column2]]/100</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C16">
+        <f>output__2[[#This Row],[Column2]]/100</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C17">
+        <f>output__2[[#This Row],[Column2]]/100</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C18">
+        <f>output__2[[#This Row],[Column2]]/100</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C19">
+        <f>output__2[[#This Row],[Column2]]/100</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C20">
+        <f>output__2[[#This Row],[Column2]]/100</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C21">
+        <f>output__2[[#This Row],[Column2]]/100</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C22">
+        <f>output__2[[#This Row],[Column2]]/100</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C23">
+        <f>output__2[[#This Row],[Column2]]/100</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C24">
+        <f>output__2[[#This Row],[Column2]]/100</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C25">
+        <f>output__2[[#This Row],[Column2]]/100</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C26">
+        <f>output__2[[#This Row],[Column2]]/100</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C27">
+        <f>output__2[[#This Row],[Column2]]/100</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C28">
+        <f>output__2[[#This Row],[Column2]]/100</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C29">
+        <f>output__2[[#This Row],[Column2]]/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C30">
+        <f>output__2[[#This Row],[Column2]]/100</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C31">
+        <f>output__2[[#This Row],[Column2]]/100</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C32">
+        <f>output__2[[#This Row],[Column2]]/100</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C33">
+        <f>output__2[[#This Row],[Column2]]/100</f>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C34">
+        <f>output__2[[#This Row],[Column2]]/100</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C35">
+        <f>output__2[[#This Row],[Column2]]/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C36">
+        <f>output__2[[#This Row],[Column2]]/100</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C37">
+        <f>output__2[[#This Row],[Column2]]/100</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C38">
+        <f>output__2[[#This Row],[Column2]]/100</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C39">
+        <f>output__2[[#This Row],[Column2]]/100</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C40">
+        <f>output__2[[#This Row],[Column2]]/100</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
+      <c r="C41">
+        <f>output__2[[#This Row],[Column2]]/100</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C42" s="1">
+        <f>SUM(output__2[Column3])-C32</f>
+        <v>1.0000000000000004</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <tableParts count="1">
